--- a/ISO19157-3_DQM.xlsx
+++ b/ISO19157-3_DQM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\272813d\data\standards\ISO\ISO_19157-3\OGC\25sep20_DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4EDC64-67A6-4E76-B565-733A1AB91252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B2DBD-4E86-47D0-B695-D80F08D6F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{07ECC0CD-EFD9-442B-A5D4-A97E92D71BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="dataQualityMeasures" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Formula</t>
   </si>
   <si>
     <t>valid</t>
@@ -1390,12 +1387,6 @@
 https://standards.isotc211.org/19157/-3/1/dqc/content/measureDescription/MD28_4</t>
   </si>
   <si>
-    <t>https://standards.isotc211.org/19157/-3/1/dqc/content/formulaType/FT28_1
-https://standards.isotc211.org/19157/-3/1/dqc/content/formulaType/FT28_2
-https://standards.isotc211.org/19157/-3/1/dqc/content/formulaType/FT28_3
-https://standards.isotc211.org/19157/-3/1/dqc/content/formulaType/FT28_4</t>
-  </si>
-  <si>
     <t>https://standards.isotc211.org/19157/-1/1/dqc/content/qualityMeasure/12</t>
   </si>
   <si>
@@ -1516,6 +1507,18 @@
   </si>
   <si>
     <t>Which surfaces may overlap and which shall not is application dependent. Not all overlapping surfaces are necessarily erroneous. When reporting this data quality measure, the types of feature classes corresponding to the illegal overlapping surfaces shall be reported as well. See also: https://standards.isotc211.org/19157/-1/1/dqc/content/qualityMeasure/204</t>
+  </si>
+  <si>
+    <t>https://standards.isotc211.org/19157/-1/1/dqc/content/qualityMeasure/49</t>
+  </si>
+  <si>
+    <t>absolute horizontal accuracy of the data’s coordinates, expressed in terms of circular error at 90 % probability given that a bias is present</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>absolute circular error at 90 % significance level of biased data</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1648,7 +1651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1658,6 +1660,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1973,16 +1980,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3172BD-82A1-4B48-B576-8E07319DA0DE}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="17" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="69.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -1990,32 +1997,31 @@
     <col min="7" max="7" width="64" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="69.42578125" customWidth="1"/>
-    <col min="14" max="15" width="8.7109375"/>
-    <col min="16" max="16" width="86.5703125" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375"/>
+    <col min="15" max="15" width="86.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="45">
       <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -2027,26 +2033,23 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="178.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="178.5" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2062,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -2074,45 +2077,42 @@
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
+        <v>77</v>
+      </c>
+      <c r="L2" s="1">
         <v>4</v>
       </c>
-      <c r="N2" s="14">
+      <c r="M2" s="13">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="120">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="120">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -2127,192 +2127,180 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
+        <v>78</v>
+      </c>
+      <c r="L3" s="1">
         <v>11</v>
       </c>
-      <c r="N3" s="14">
+      <c r="M3" s="13">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="150">
+      <c r="A4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="90">
+      <c r="A5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="90">
+      <c r="A6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1">
+        <v>119</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="150">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>12</v>
-      </c>
-      <c r="N4" s="14">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="90">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>14</v>
-      </c>
-      <c r="N5" s="14">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="90">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>119</v>
-      </c>
-      <c r="N6" s="14">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="225">
+      <c r="A7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="225">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
@@ -2327,219 +2315,207 @@
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="75">
+      <c r="A8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>21</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>47</v>
+      </c>
+      <c r="M8" s="13">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="120">
+      <c r="A9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>59</v>
+      </c>
+      <c r="M9" s="13">
         <v>1</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="N9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="75">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>47</v>
-      </c>
-      <c r="N8" s="14">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="120">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="90">
+      <c r="A10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>59</v>
-      </c>
-      <c r="N9" s="14">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="90">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1">
+        <v>62</v>
+      </c>
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="90">
+      <c r="A11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>101</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="105">
+      <c r="A12" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>62</v>
-      </c>
-      <c r="N10" s="14">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="90">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>101</v>
-      </c>
-      <c r="N11" s="14">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="105">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -2551,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
@@ -2571,60 +2547,93 @@
       <c r="K12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="1">
         <v>102</v>
       </c>
-      <c r="N12" s="14">
+      <c r="M12" s="13">
         <v>1</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="120">
-      <c r="A13" s="5" t="s">
-        <v>77</v>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="60">
+      <c r="A13" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="L13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13" s="1">
+        <v>171</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="L13" s="1">
         <v>28</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" t="s">
-        <v>185</v>
+      <c r="M13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="45">
+      <c r="A14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="1">
+        <v>49</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O13" r:id="rId1" xr:uid="{3743013B-F57A-4BEA-A84F-0A746133D3B6}"/>
+    <hyperlink ref="O14" r:id="rId2" xr:uid="{9E22B383-AF16-4DB1-9AC5-45CAAC4F196B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2633,7 +2642,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2648,39 +2657,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +2702,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2708,47 +2717,47 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -2764,7 +2773,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2777,84 +2786,84 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="150">
-      <c r="A2" s="6" t="s">
-        <v>111</v>
+      <c r="A2" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
-        <v>162</v>
+      <c r="A3" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2863,54 +2872,48 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="90">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90">
+      <c r="A11" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90">
-      <c r="A11" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6E7C252E-5048-49CD-BE41-CE27EF5CD36F}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D780799B-21F2-4480-AA64-48903C24F58B}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{43D40AB5-416E-42DB-9E44-5373AF8A5E68}"/>
-    <hyperlink ref="A11" r:id="rId4" xr:uid="{7E02655C-1294-4B8B-BB3E-6C6CEA66E2A6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2918,14 +2921,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5533B5C1-A014-4899-B96F-58A34EB61E8E}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="1" max="1" width="78" customWidth="1"/>
     <col min="2" max="2" width="64.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -2934,280 +2937,277 @@
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="165">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150">
+      <c r="A4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="150">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="165">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="90">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105">
+      <c r="A12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="105">
-      <c r="A12" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="165">
       <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="225">
       <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="75">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="180">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{2D7835DC-BE5F-40A0-AFCB-D269AA076BB0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D2:D16" numberStoredAsText="1"/>
